--- a/config_aomi_7.6/game_module_config.xlsx
+++ b/config_aomi_7.6/game_module_config.xlsx
@@ -3597,16 +3597,16 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_020_dlphb</t>
+    <t>act_ty_sjb_style/act_021_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_019_xigua</t>
-  </si>
-  <si>
-    <t>西瓜掉落</t>
+    <t>act_ty_by_drop_style/act_020_pjq</t>
+  </si>
+  <si>
+    <t>啤酒券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_021</t>
+    <t>sys_act_base_style/sys_act_base_weekly_023</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3750,10 +3750,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_004_sxlb</t>
-  </si>
-  <si>
-    <t>盛夏礼包</t>
+    <t>act_ty_gifts_style/act_005_cjlb</t>
+  </si>
+  <si>
+    <t>抽奖礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3835,10 +3835,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3922,9 +3922,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3937,22 +3997,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3967,23 +4013,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3992,29 +4023,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4027,25 +4036,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4122,6 +4122,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4134,103 +4170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4248,7 +4194,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4260,37 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4334,22 +4334,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4373,7 +4377,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4383,21 +4398,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4424,10 +4424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4436,133 +4436,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5053,7 +5053,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13173,13 +13173,13 @@
         <v>934</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="37" t="s">
         <v>935</v>

--- a/config_aomi_7.6/game_module_config.xlsx
+++ b/config_aomi_7.6/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3820,6 +3820,42 @@
   </si>
   <si>
     <t>Act_042_XSHBManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_bzzy</t>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+  </si>
+  <si>
+    <t>FishFarmBZZYManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_daytask</t>
+  </si>
+  <si>
+    <t>水族馆每日任务</t>
+  </si>
+  <si>
+    <t>FishFarmDailyTaskManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_jlspring</t>
+  </si>
+  <si>
+    <t>精灵泉水</t>
+  </si>
+  <si>
+    <t>FishFarmJlSpringManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_simplicity</t>
+  </si>
+  <si>
+    <t>水族馆</t>
+  </si>
+  <si>
+    <t>SYSFishFarmSimplicityManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3923,7 +3959,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3936,8 +3986,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3945,30 +4004,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3982,11 +4018,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3997,11 +4038,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4023,7 +4079,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4038,22 +4094,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4064,11 +4105,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4122,7 +4158,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4134,13 +4182,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,25 +4224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,7 +4242,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4200,31 +4272,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4237,60 +4327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4334,26 +4370,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4384,11 +4411,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,17 +4442,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4424,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4436,19 +4472,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4457,13 +4493,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4472,101 +4505,104 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5046,21 +5082,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A335" sqref="A335"/>
+      <selection pane="bottomRight" activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -13757,6 +13793,110 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="5">
+        <v>342</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="I343" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="I344" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="5">
+        <v>344</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="I345" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="5">
+        <v>345</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="I346" t="s">
         <v>999</v>
       </c>
     </row>
@@ -13787,7 +13927,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi_7.6/game_module_config.xlsx
+++ b/config_aomi_7.6/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$346</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3871,10 +3871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3959,36 +3959,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4003,16 +3974,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4025,14 +4009,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4046,7 +4038,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4061,16 +4061,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4094,7 +4094,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4158,7 +4158,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,115 +4242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,25 +4260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4326,7 +4278,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4356,16 +4356,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4386,16 +4397,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4405,15 +4416,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4436,19 +4438,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4460,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4472,137 +4472,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5085,11 +5085,11 @@
   <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D351" sqref="D351"/>
+      <selection pane="bottomRight" activeCell="H333" sqref="H333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13565,13 +13565,13 @@
         <v>975</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" s="46">
         <v>44355</v>
@@ -13901,7 +13901,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H342">
+  <autoFilter ref="A1:H346">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_aomi_7.6/game_module_config.xlsx
+++ b/config_aomi_7.6/game_module_config.xlsx
@@ -3871,10 +3871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3958,47 +3958,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -4015,11 +3974,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4030,16 +3989,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4047,6 +3998,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4061,6 +4033,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4069,16 +4065,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4086,7 +4074,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4105,6 +4093,18 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4158,7 +4158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,13 +4176,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,19 +4218,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4212,61 +4242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4278,31 +4260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,13 +4284,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4355,6 +4355,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4366,30 +4384,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4409,11 +4403,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4460,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4472,137 +4472,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5089,7 +5089,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H338" sqref="H338"/>
+      <selection pane="bottomRight" activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13591,13 +13591,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" s="32" t="s">
         <v>978</v>
@@ -13614,13 +13614,13 @@
         <v>980</v>
       </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" s="32" t="s">
         <v>981</v>

--- a/config_aomi_7.6/game_module_config.xlsx
+++ b/config_aomi_7.6/game_module_config.xlsx
@@ -3777,7 +3777,7 @@
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_003</t>
+    <t>act_ty_zp1_style/act_ty_zp1_005</t>
   </si>
   <si>
     <t>通用转盘皮肤</t>
@@ -3871,10 +3871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3959,37 +3959,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4003,11 +3973,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -4023,39 +3999,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4069,11 +4023,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4094,14 +4101,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4158,6 +4158,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4170,13 +4236,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,43 +4272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4242,43 +4290,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,37 +4314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4356,27 +4356,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4396,17 +4385,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4438,17 +4436,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4460,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4475,134 +4475,134 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5089,7 +5089,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H333" sqref="H333"/>
+      <selection pane="bottomRight" activeCell="H338" sqref="H338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13683,13 +13683,13 @@
         <v>989</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" s="51">
         <v>44354</v>
